--- a/app/src/main/assets/2016.12.19-2016.12.25.xlsx
+++ b/app/src/main/assets/2016.12.19-2016.12.25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>推荐的所有布局，栏目的部分监听，我的item的点击实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐布局的部分实现50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +145,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +515,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -565,6 +578,9 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/2016.12.19-2016.12.25.xlsx
+++ b/app/src/main/assets/2016.12.19-2016.12.25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,23 +62,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>推荐的所有布局，栏目的部分监听，我的item的点击实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐布局的部分实现50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>栏目的布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐的所有布局，栏目的部分监听，我的item的点击实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐布局的部分实现50%</t>
+    <t>登录 50% 注册 80% 头像的设置100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局已完成90%，还缺少一部分点击事件，点击事件50%，目前缺少视频播放功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +110,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,18 +144,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,99 +179,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -235,7 +244,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -512,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -553,15 +562,18 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -569,7 +581,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -579,9 +594,12 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/app/src/main/assets/2016.12.19-2016.12.25.xlsx
+++ b/app/src/main/assets/2016.12.19-2016.12.25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,23 +70,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登录 50% 注册 80% 头像的设置100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局已完成90%，还缺少一部分点击事件，点击事件50%，目前缺少视频播放功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>推荐首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏目的布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录 50% 注册 80% 头像的设置100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局已完成90%，还缺少一部分点击事件，点击事件50%，目前缺少视频播放功能</t>
+    <t>备注：完成为黄色未完成为蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日计划：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐的所有真实数据以及部分关联功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,19 +146,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,30 +212,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -233,6 +243,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -244,7 +322,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -523,18 +601,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
     <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -558,48 +640,54 @@
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
